--- a/biology/Biologie cellulaire et moléculaire/Récepteur_nucléaire/Récepteur_nucléaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_nucléaire/Récepteur_nucléaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_nucl%C3%A9aire</t>
+          <t>Récepteur_nucléaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les récepteurs nucléaires sont une super-famille de récepteurs biochimiques. Ce sont des protéines actives dans le noyau des cellules qui, pour nombre d'entre elles, transmettent à celles-ci des signaux hormonaux spécifiques conduisant à la modulation de l'expression de gènes cibles.
 Les récepteurs nucléaires sont présents chez tous les métazoaires. La famille est constituée de 49 membres identifiés à ce jour chez l'homme mais de plus d'une centaine toutes espèces confondues.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_nucl%C3%A9aire</t>
+          <t>Récepteur_nucléaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Modes d'action des récepteurs nucléaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux récepteurs nucléaires fonctionnent avant tout comme des facteurs de transcription inductibles par un ligand (comme une hormone stéroïde, mais aussi par exemple certains lipides intracellulaires). Cependant beaucoup n'ont pas de ligand identifié, ils sont dits récepteurs nucléaires orphelins. De plus, certains récepteurs nucléaires ont des effets autrement que par leur qualité de facteurs de transcription. Ils peuvent par exemple agir sur d'autres voies de signalisation intracellulaire.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_nucl%C3%A9aire</t>
+          <t>Récepteur_nucléaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Structure générale des récepteurs nucléaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les récepteurs nucléaires sont des protéines dont la taille varie classiquement entre 40 et 100 kilodaltons (kDa). Ils ont été subdivisés arbitrairement en 5 (ou 6) domaines (A, B, C, D, E (F)).
 A/B : Longueur Variable, Facteur de régulation
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_nucl%C3%A9aire</t>
+          <t>Récepteur_nucléaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Liste partielle de récepteurs nucléaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Par nécessité un grand nombre de récepteurs ne peuvent avoir qu'une appellation anglophone
 Sous-famille 1: de la famille des hormones thyroïdiennes
